--- a/ResultadoEleicoesDistritos/VISEU_TONDELA.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_TONDELA.xlsx
@@ -597,64 +597,64 @@
         <v>7307</v>
       </c>
       <c r="H2" t="n">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I2" t="n">
-        <v>652</v>
+        <v>719</v>
       </c>
       <c r="J2" t="n">
-        <v>3062</v>
+        <v>3108</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" t="n">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="M2" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="N2" t="n">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="S2" t="n">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="T2" t="n">
-        <v>545</v>
+        <v>489</v>
       </c>
       <c r="U2" t="n">
         <v>43</v>
       </c>
       <c r="V2" t="n">
-        <v>4627</v>
+        <v>4651</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>4707</v>
+        <v>4670</v>
       </c>
       <c r="Y2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
